--- a/output/bankrate.xlsx
+++ b/output/bankrate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>loan_product</t>
   </si>
@@ -58,46 +58,43 @@
     <t>30-Year Fixed Rate Jumbo</t>
   </si>
   <si>
-    <t>6.76%</t>
-  </si>
-  <si>
-    <t>6.44%</t>
-  </si>
-  <si>
-    <t>6.03%</t>
-  </si>
-  <si>
-    <t>6.13%</t>
-  </si>
-  <si>
-    <t>6.91%</t>
-  </si>
-  <si>
-    <t>6.94%</t>
+    <t>6.74%</t>
+  </si>
+  <si>
+    <t>6.51%</t>
+  </si>
+  <si>
+    <t>5.99%</t>
+  </si>
+  <si>
+    <t>6.14%</t>
+  </si>
+  <si>
+    <t>6.70%</t>
+  </si>
+  <si>
+    <t>6.73%</t>
+  </si>
+  <si>
+    <t>6.81%</t>
+  </si>
+  <si>
+    <t>6.60%</t>
+  </si>
+  <si>
+    <t>6.09%</t>
+  </si>
+  <si>
+    <t>6.25%</t>
   </si>
   <si>
     <t>6.75%</t>
   </si>
   <si>
-    <t>6.82%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>6.12%</t>
-  </si>
-  <si>
-    <t>6.23%</t>
-  </si>
-  <si>
-    <t>6.97%</t>
-  </si>
-  <si>
-    <t>7.00%</t>
-  </si>
-  <si>
-    <t>6.80%</t>
+    <t>6.78%</t>
+  </si>
+  <si>
+    <t>6.79%</t>
   </si>
   <si>
     <t>30</t>
@@ -115,7 +112,7 @@
     <t>Bankrate</t>
   </si>
   <si>
-    <t>2025-07-31</t>
+    <t>2025-08-04</t>
   </si>
   <si>
     <t>Purchase</t>
@@ -513,19 +510,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -536,19 +533,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -559,19 +556,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -582,19 +579,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -605,19 +602,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -628,19 +625,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -648,22 +645,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output/bankrate.xlsx
+++ b/output/bankrate.xlsx
@@ -58,43 +58,43 @@
     <t>30-Year Fixed Rate Jumbo</t>
   </si>
   <si>
-    <t>6.74%</t>
-  </si>
-  <si>
-    <t>6.51%</t>
-  </si>
-  <si>
-    <t>5.99%</t>
-  </si>
-  <si>
-    <t>6.14%</t>
-  </si>
-  <si>
-    <t>6.70%</t>
-  </si>
-  <si>
-    <t>6.73%</t>
-  </si>
-  <si>
-    <t>6.81%</t>
-  </si>
-  <si>
-    <t>6.60%</t>
-  </si>
-  <si>
-    <t>6.09%</t>
-  </si>
-  <si>
-    <t>6.25%</t>
-  </si>
-  <si>
-    <t>6.75%</t>
-  </si>
-  <si>
-    <t>6.78%</t>
-  </si>
-  <si>
-    <t>6.79%</t>
+    <t>6.58%</t>
+  </si>
+  <si>
+    <t>6.26%</t>
+  </si>
+  <si>
+    <t>5.76%</t>
+  </si>
+  <si>
+    <t>5.71%</t>
+  </si>
+  <si>
+    <t>6.31%</t>
+  </si>
+  <si>
+    <t>6.36%</t>
+  </si>
+  <si>
+    <t>6.66%</t>
+  </si>
+  <si>
+    <t>6.64%</t>
+  </si>
+  <si>
+    <t>6.35%</t>
+  </si>
+  <si>
+    <t>5.86%</t>
+  </si>
+  <si>
+    <t>5.79%</t>
+  </si>
+  <si>
+    <t>6.41%</t>
+  </si>
+  <si>
+    <t>6.71%</t>
   </si>
   <si>
     <t>30</t>
@@ -112,7 +112,7 @@
     <t>Bankrate</t>
   </si>
   <si>
-    <t>2025-08-04</t>
+    <t>2025-08-08</t>
   </si>
   <si>
     <t>Purchase</t>
@@ -510,7 +510,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -533,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -556,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -602,7 +602,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -645,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>

--- a/output/bankrate.xlsx
+++ b/output/bankrate.xlsx
@@ -58,40 +58,40 @@
     <t>30-Year Fixed Rate Jumbo</t>
   </si>
   <si>
-    <t>6.58%</t>
-  </si>
-  <si>
-    <t>6.26%</t>
+    <t>6.67%</t>
+  </si>
+  <si>
+    <t>6.36%</t>
+  </si>
+  <si>
+    <t>5.85%</t>
   </si>
   <si>
     <t>5.76%</t>
   </si>
   <si>
-    <t>5.71%</t>
-  </si>
-  <si>
-    <t>6.31%</t>
-  </si>
-  <si>
-    <t>6.36%</t>
+    <t>6.56%</t>
   </si>
   <si>
     <t>6.66%</t>
   </si>
   <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>6.35%</t>
-  </si>
-  <si>
-    <t>5.86%</t>
-  </si>
-  <si>
-    <t>5.79%</t>
-  </si>
-  <si>
-    <t>6.41%</t>
+    <t>6.73%</t>
+  </si>
+  <si>
+    <t>6.45%</t>
+  </si>
+  <si>
+    <t>5.94%</t>
+  </si>
+  <si>
+    <t>5.83%</t>
+  </si>
+  <si>
+    <t>6.61%</t>
+  </si>
+  <si>
+    <t>6.70%</t>
   </si>
   <si>
     <t>6.71%</t>
@@ -112,7 +112,7 @@
     <t>Bankrate</t>
   </si>
   <si>
-    <t>2025-08-08</t>
+    <t>2025-08-11</t>
   </si>
   <si>
     <t>Purchase</t>
@@ -510,7 +510,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -533,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -556,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -602,7 +602,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -645,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>

--- a/output/bankrate.xlsx
+++ b/output/bankrate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>loan_product</t>
   </si>
@@ -58,43 +58,46 @@
     <t>30-Year Fixed Rate Jumbo</t>
   </si>
   <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>6.36%</t>
-  </si>
-  <si>
-    <t>5.85%</t>
-  </si>
-  <si>
-    <t>5.76%</t>
-  </si>
-  <si>
-    <t>6.56%</t>
-  </si>
-  <si>
-    <t>6.66%</t>
-  </si>
-  <si>
-    <t>6.73%</t>
-  </si>
-  <si>
-    <t>6.45%</t>
-  </si>
-  <si>
-    <t>5.94%</t>
-  </si>
-  <si>
-    <t>5.83%</t>
+    <t>6.71%</t>
+  </si>
+  <si>
+    <t>6.39%</t>
+  </si>
+  <si>
+    <t>5.87%</t>
+  </si>
+  <si>
+    <t>5.78%</t>
   </si>
   <si>
     <t>6.61%</t>
   </si>
   <si>
-    <t>6.70%</t>
-  </si>
-  <si>
-    <t>6.71%</t>
+    <t>6.78%</t>
+  </si>
+  <si>
+    <t>6.75%</t>
+  </si>
+  <si>
+    <t>6.77%</t>
+  </si>
+  <si>
+    <t>6.48%</t>
+  </si>
+  <si>
+    <t>5.96%</t>
+  </si>
+  <si>
+    <t>5.86%</t>
+  </si>
+  <si>
+    <t>6.68%</t>
+  </si>
+  <si>
+    <t>6.82%</t>
+  </si>
+  <si>
+    <t>6.80%</t>
   </si>
   <si>
     <t>30</t>
@@ -112,7 +115,7 @@
     <t>Bankrate</t>
   </si>
   <si>
-    <t>2025-08-11</t>
+    <t>2025-08-12</t>
   </si>
   <si>
     <t>Purchase</t>
@@ -510,19 +513,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -533,19 +536,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -556,19 +559,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -579,19 +582,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -602,19 +605,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -625,19 +628,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -645,22 +648,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output/bankrate.xlsx
+++ b/output/bankrate.xlsx
@@ -58,48 +58,48 @@
     <t>30-Year Fixed Rate Jumbo</t>
   </si>
   <si>
-    <t>6.71%</t>
-  </si>
-  <si>
-    <t>6.39%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>5.78%</t>
-  </si>
-  <si>
-    <t>6.61%</t>
-  </si>
-  <si>
-    <t>6.78%</t>
-  </si>
-  <si>
-    <t>6.75%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>6.48%</t>
-  </si>
-  <si>
-    <t>5.96%</t>
+    <t>6.66%</t>
+  </si>
+  <si>
+    <t>6.33%</t>
   </si>
   <si>
     <t>5.86%</t>
   </si>
   <si>
-    <t>6.68%</t>
-  </si>
-  <si>
-    <t>6.82%</t>
+    <t>5.77%</t>
+  </si>
+  <si>
+    <t>6.73%</t>
+  </si>
+  <si>
+    <t>6.79%</t>
+  </si>
+  <si>
+    <t>6.65%</t>
+  </si>
+  <si>
+    <t>6.72%</t>
+  </si>
+  <si>
+    <t>6.42%</t>
+  </si>
+  <si>
+    <t>5.95%</t>
+  </si>
+  <si>
+    <t>5.85%</t>
   </si>
   <si>
     <t>6.80%</t>
   </si>
   <si>
+    <t>6.84%</t>
+  </si>
+  <si>
+    <t>6.69%</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -115,7 +115,7 @@
     <t>Bankrate</t>
   </si>
   <si>
-    <t>2025-08-12</t>
+    <t>2025-08-13</t>
   </si>
   <si>
     <t>Purchase</t>

--- a/output/bankrate.xlsx
+++ b/output/bankrate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>loan_product</t>
   </si>
@@ -58,48 +58,45 @@
     <t>30-Year Fixed Rate Jumbo</t>
   </si>
   <si>
-    <t>6.66%</t>
-  </si>
-  <si>
-    <t>6.33%</t>
-  </si>
-  <si>
-    <t>5.86%</t>
-  </si>
-  <si>
-    <t>5.77%</t>
+    <t>6.64%</t>
+  </si>
+  <si>
+    <t>6.36%</t>
+  </si>
+  <si>
+    <t>5.84%</t>
+  </si>
+  <si>
+    <t>5.79%</t>
+  </si>
+  <si>
+    <t>6.68%</t>
   </si>
   <si>
     <t>6.73%</t>
   </si>
   <si>
-    <t>6.79%</t>
-  </si>
-  <si>
-    <t>6.65%</t>
+    <t>6.70%</t>
+  </si>
+  <si>
+    <t>6.46%</t>
+  </si>
+  <si>
+    <t>5.92%</t>
+  </si>
+  <si>
+    <t>5.87%</t>
+  </si>
+  <si>
+    <t>6.75%</t>
+  </si>
+  <si>
+    <t>6.78%</t>
   </si>
   <si>
     <t>6.72%</t>
   </si>
   <si>
-    <t>6.42%</t>
-  </si>
-  <si>
-    <t>5.95%</t>
-  </si>
-  <si>
-    <t>5.85%</t>
-  </si>
-  <si>
-    <t>6.80%</t>
-  </si>
-  <si>
-    <t>6.84%</t>
-  </si>
-  <si>
-    <t>6.69%</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -115,7 +112,7 @@
     <t>Bankrate</t>
   </si>
   <si>
-    <t>2025-08-13</t>
+    <t>2025-08-19</t>
   </si>
   <si>
     <t>Purchase</t>
@@ -513,19 +510,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -536,19 +533,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -559,19 +556,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -582,19 +579,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -605,19 +602,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -628,19 +625,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -648,22 +645,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output/bankrate.xlsx
+++ b/output/bankrate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>loan_product</t>
   </si>
@@ -58,45 +58,48 @@
     <t>30-Year Fixed Rate Jumbo</t>
   </si>
   <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>6.36%</t>
-  </si>
-  <si>
-    <t>5.84%</t>
-  </si>
-  <si>
-    <t>5.79%</t>
-  </si>
-  <si>
-    <t>6.68%</t>
+    <t>6.67%</t>
+  </si>
+  <si>
+    <t>6.37%</t>
+  </si>
+  <si>
+    <t>5.86%</t>
+  </si>
+  <si>
+    <t>5.82%</t>
+  </si>
+  <si>
+    <t>6.66%</t>
+  </si>
+  <si>
+    <t>6.78%</t>
+  </si>
+  <si>
+    <t>6.74%</t>
   </si>
   <si>
     <t>6.73%</t>
   </si>
   <si>
-    <t>6.70%</t>
-  </si>
-  <si>
     <t>6.46%</t>
   </si>
   <si>
-    <t>5.92%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>6.75%</t>
-  </si>
-  <si>
-    <t>6.78%</t>
+    <t>5.94%</t>
+  </si>
+  <si>
+    <t>5.89%</t>
   </si>
   <si>
     <t>6.72%</t>
   </si>
   <si>
+    <t>6.84%</t>
+  </si>
+  <si>
+    <t>6.79%</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -112,7 +115,7 @@
     <t>Bankrate</t>
   </si>
   <si>
-    <t>2025-08-19</t>
+    <t>2025-08-26</t>
   </si>
   <si>
     <t>Purchase</t>
@@ -510,19 +513,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -533,19 +536,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -556,19 +559,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -579,19 +582,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -602,19 +605,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -625,19 +628,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -645,22 +648,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
